--- a/Perfboard.xlsx
+++ b/Perfboard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -456,7 +456,346 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">背面连通 右下</t>
+    <t xml:space="preserve">背面焊点Line5 GND</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Line1 Pin1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">220v-5v 5v</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">220v-5v GND</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Relay 3.3v</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Relay GND</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Ralay I/O</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">O</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">5v-3.3v 3.3v</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Line6 GPIO13</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Pin2 5v</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Pin3 GND</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">背面连通右上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正背连通左右上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">背面连通 左上下</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正面连通 左右下</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正面连通 左右</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正背连通 左右</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8266 GND</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">背面连通 左上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">背面连通 左右上</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8266 3.3v</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">正面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Button1 GND</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">正面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Button1 Reset</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Pin3 Flash</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">背面连通 左下</t>
@@ -478,267 +817,34 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Line1 Pin1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">220v-5v 5v</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">220v-5v GND</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Relay 3.3v</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Relay GND</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Ralay I/O</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">5v-3.3v 3.3v</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Line5 GPIO13</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Pin2 5v</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Pin3 GND</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">背面连通右上</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正背连通左右上</t>
-  </si>
-  <si>
-    <t xml:space="preserve">背面连通 左上下</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正面连通 左右下</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正面连通 左右</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正背连通 左右</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8266 GND</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">背面连通 左上</t>
-  </si>
-  <si>
-    <t xml:space="preserve">背面连通 左右上</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8266 3.3v</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
+      <t xml:space="preserve">Line6 I/O</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8266 GPIO13</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正面连通 右上下</t>
   </si>
   <si>
     <r>
@@ -757,7 +863,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Button1 GND</t>
+      <t xml:space="preserve">LED2 GND</t>
     </r>
   </si>
   <si>
@@ -777,74 +883,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Button1 Reset</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Pin3 Flash</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Line5 I/O</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8266 GPIO13</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正面连通 右上下</t>
+      <t xml:space="preserve">LED2 R2-220</t>
+    </r>
   </si>
   <si>
     <r>
@@ -863,8 +903,34 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">LED2 GND</t>
-    </r>
+      <t xml:space="preserve">Line4 I/O</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">正背连通左右</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8266 GPIO12</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
   </si>
   <si>
     <r>
@@ -883,7 +949,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">LED2 R2-220</t>
+      <t xml:space="preserve">Line7 Reset</t>
     </r>
   </si>
   <si>
@@ -903,34 +969,31 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Line4 I/O</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">正背连通左右</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8266 GPIO12</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
+      <t xml:space="preserve">Line8 LED2R</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">背面连通 右上</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8266 GPIO0</t>
+    </r>
   </si>
   <si>
     <r>
@@ -949,8 +1012,71 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Line6 Reset</t>
-    </r>
+      <t xml:space="preserve">Line8 LED2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">R2-220 LED2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">R2-220 I/O</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8266 GPIO14</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
   </si>
   <si>
     <r>
@@ -969,30 +1095,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Line7 LED2R</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">背面连通 右上</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8266 GPIO0</t>
+      <t xml:space="preserve">Button2 GND</t>
     </r>
   </si>
   <si>
@@ -1012,71 +1115,31 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Line7 LED2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">R2-220 LED2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">R2-220 I/O</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8266 GPIO14</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
+      <t xml:space="preserve">Button2 Config</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">背面焊点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8266 GPIO4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
   </si>
   <si>
     <r>
@@ -1095,7 +1158,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Button2 GND</t>
+      <t xml:space="preserve">LED3 GND</t>
     </r>
   </si>
   <si>
@@ -1115,31 +1178,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Button2 Config</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">背面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8266 GPIO4</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
+      <t xml:space="preserve">LED3 I/O</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1158,47 +1198,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">LED3 GND</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">正面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">LED3 I/O</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">正面焊点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Line8 LED3</t>
+      <t xml:space="preserve">Line9 LED3</t>
     </r>
   </si>
   <si>
@@ -1439,7 +1439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="56">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1491,34 +1491,62 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="dotted"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="dotted"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin"/>
       <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="dotted"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="dotted"/>
+      <top style="thin"/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
+      <right style="dotted"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1552,36 +1580,38 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="dotted"/>
       <right style="dotted"/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
+      <right style="dotted">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="dotted"/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="dotted"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="dotted"/>
       <right style="dotted"/>
-      <top style="dotted">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dotted">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="dotted"/>
-      <top style="dotted">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dotted"/>
-      <right style="dotted"/>
-      <top style="dotted">
+      <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="dotted"/>
@@ -1596,6 +1626,35 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="dotted"/>
+      <right style="dotted"/>
+      <top style="dotted"/>
+      <bottom style="dotted">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
+      <right style="dotted"/>
+      <top style="dotted">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
+      <right style="dotted"/>
+      <top style="dotted">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
       <right style="dotted">
         <color rgb="FFFFFFFF"/>
       </right>
@@ -1616,15 +1675,108 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="dotted"/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="dotted"/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="dotted"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="dotted"/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="dotted"/>
+      <top style="dotted"/>
+      <bottom style="dotted">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
       <right style="dotted">
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="dotted">
         <color rgb="FFFFFFFF"/>
       </top>
-      <bottom style="dotted">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="dotted"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1639,42 +1791,59 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <left style="dotted">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="dotted"/>
+      <top style="dotted">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="dotted"/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="dotted"/>
+      <top style="dotted">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="dotted"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="dotted"/>
-      <right style="dotted"/>
-      <top style="dotted"/>
-      <bottom style="dotted">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dotted"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thin">
+      <top style="dotted">
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="dotted"/>
@@ -1690,25 +1859,25 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="dotted">
+      <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="dotted">
+      <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
-      <bottom style="dotted">
+      <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1717,31 +1886,7 @@
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dotted"/>
-      <right style="dotted">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="dotted"/>
       <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1760,6 +1905,17 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="dotted"/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="dotted"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
@@ -1832,7 +1988,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1885,7 +2041,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1893,7 +2049,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1917,10 +2073,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1929,6 +2081,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1949,30 +2105,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1993,31 +2141,91 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2040,8 +2248,8 @@
   </sheetPr>
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2126,20 +2334,20 @@
         <v>1</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="7"/>
@@ -2147,8 +2355,8 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="13" t="s">
+      <c r="S2" s="14"/>
+      <c r="T2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2156,35 +2364,35 @@
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="17" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="13" t="s">
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2192,29 +2400,29 @@
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="19" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2222,25 +2430,25 @@
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="13" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2248,27 +2456,27 @@
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="13" t="s">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2276,31 +2484,31 @@
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="13" t="s">
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2308,29 +2516,29 @@
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="19" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="13" t="s">
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2338,31 +2546,31 @@
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="22" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="13" t="s">
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2370,31 +2578,31 @@
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="17" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="13" t="s">
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2402,29 +2610,29 @@
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="24" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="13" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2432,25 +2640,25 @@
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="13" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2458,25 +2666,25 @@
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="13" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2484,301 +2692,289 @@
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="O14" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="R14" s="23" t="s">
+      <c r="S14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="S14" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="T14" s="13" t="s">
+      <c r="T14" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="C15" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15" t="s">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="27" t="s">
+      <c r="R15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="R15" s="19" t="s">
+      <c r="S15" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="S15" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>40</v>
+      <c r="T15" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="N16" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="27" t="s">
+      <c r="R16" s="17"/>
+      <c r="S16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="0"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="R16" s="15"/>
-      <c r="S16" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>46</v>
+      <c r="T16" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="C17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="19" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="31" t="s">
+      <c r="N17" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="N17" s="32" t="s">
+      <c r="O17" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="O17" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="13" t="s">
-        <v>49</v>
+      <c r="R17" s="17"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="C18" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="E18" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="I18" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="23" t="s">
+      <c r="J18" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="K18" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="19" t="s">
+      <c r="S18" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="R18" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="S18" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>55</v>
+      <c r="T18" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
+      <c r="G19" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15" t="s">
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="S19" s="33" t="s">
+      <c r="S19" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="T19" s="13" t="s">
-        <v>63</v>
+      <c r="T19" s="15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="23" t="s">
+      <c r="C20" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15" t="s">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="R20" s="35" t="s">
+      <c r="R20" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="S20" s="33" t="s">
+      <c r="S20" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="T20" s="13" t="s">
+      <c r="T20" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2786,47 +2982,47 @@
       <c r="A21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="37" t="s">
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M21" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="N21" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15" t="s">
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="S21" s="33" t="s">
+      <c r="S21" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="T21" s="13" t="s">
+      <c r="T21" s="15" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2834,37 +3030,37 @@
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="23" t="s">
+      <c r="E22" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="13" t="s">
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="15" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2872,47 +3068,47 @@
       <c r="A23" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="N23" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="23" t="s">
+      <c r="O23" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="H23" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="N23" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="13" t="s">
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="15" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2920,35 +3116,35 @@
       <c r="A24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="37" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="13" t="s">
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="15" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2956,97 +3152,97 @@
       <c r="A25" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="41" t="s">
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="R25" s="40" t="s">
+      <c r="R25" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="S25" s="43" t="s">
+      <c r="S25" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="T25" s="13" t="s">
+      <c r="T25" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45" t="n">
+      <c r="A26" s="57"/>
+      <c r="B26" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="45" t="n">
+      <c r="C26" s="58" t="n">
         <v>2</v>
       </c>
-      <c r="D26" s="45" t="n">
+      <c r="D26" s="58" t="n">
         <v>3</v>
       </c>
-      <c r="E26" s="45" t="n">
+      <c r="E26" s="58" t="n">
         <v>4</v>
       </c>
-      <c r="F26" s="45" t="n">
+      <c r="F26" s="58" t="n">
         <v>5</v>
       </c>
-      <c r="G26" s="45" t="n">
+      <c r="G26" s="58" t="n">
         <v>6</v>
       </c>
-      <c r="H26" s="45" t="n">
+      <c r="H26" s="58" t="n">
         <v>7</v>
       </c>
-      <c r="I26" s="45" t="n">
+      <c r="I26" s="58" t="n">
         <v>8</v>
       </c>
-      <c r="J26" s="45" t="n">
+      <c r="J26" s="58" t="n">
         <v>9</v>
       </c>
-      <c r="K26" s="45" t="n">
+      <c r="K26" s="58" t="n">
         <v>10</v>
       </c>
-      <c r="L26" s="45" t="n">
+      <c r="L26" s="58" t="n">
         <v>11</v>
       </c>
-      <c r="M26" s="45" t="n">
+      <c r="M26" s="58" t="n">
         <v>12</v>
       </c>
-      <c r="N26" s="45" t="n">
+      <c r="N26" s="58" t="n">
         <v>13</v>
       </c>
-      <c r="O26" s="45" t="n">
+      <c r="O26" s="58" t="n">
         <v>14</v>
       </c>
-      <c r="P26" s="45" t="n">
+      <c r="P26" s="58" t="n">
         <v>15</v>
       </c>
-      <c r="Q26" s="45" t="n">
+      <c r="Q26" s="58" t="n">
         <v>16</v>
       </c>
-      <c r="R26" s="45" t="n">
+      <c r="R26" s="58" t="n">
         <v>17</v>
       </c>
-      <c r="S26" s="45" t="n">
+      <c r="S26" s="58" t="n">
         <v>18</v>
       </c>
-      <c r="T26" s="46"/>
+      <c r="T26" s="59"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
